--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="П-30 2025" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>SimpleMVP (users)</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -197,6 +200,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,16 +501,18 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="35.4">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -518,7 +526,9 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -1243,7 +1253,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1256,7 +1266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9046F-BAF2-4801-89D1-3D7B7C7C1B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="П-30 2025" sheetId="1" r:id="rId1"/>
@@ -117,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +211,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +263,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -288,6 +297,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -322,9 +332,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,22 +508,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="35.4">
+    <row r="1" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -538,7 +549,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -566,7 +577,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -594,7 +605,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -622,7 +633,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -650,7 +661,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -678,7 +689,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -706,7 +717,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -734,7 +745,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -762,7 +773,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -790,7 +801,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -818,7 +829,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -846,7 +857,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -874,7 +885,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -902,7 +913,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -930,7 +941,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -958,7 +969,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -986,7 +997,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1025,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1042,7 +1053,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1081,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1109,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1137,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1165,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1182,7 +1193,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1210,7 +1221,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1239,7 +1250,7 @@
       <c r="P26" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A26">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1248,12 +1259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1261,12 +1272,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9046F-BAF2-4801-89D1-3D7B7C7C1B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E44568-5511-404F-A235-32C53913C9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,9 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -668,8 +670,8 @@
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
+      <c r="C6" s="4">
+        <v>4</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -705,7 +707,9 @@
       <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1030,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>29</v>
@@ -1125,7 +1129,9 @@
       <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1197,8 +1203,8 @@
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
+      <c r="B25" s="7">
+        <v>3</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E44568-5511-404F-A235-32C53913C9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EB382D-0359-4CAC-8029-5D88B35D0EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>29</v>
@@ -865,8 +865,8 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
+      <c r="B13" s="7">
+        <v>4</v>
       </c>
       <c r="C13" s="7">
         <v>3</v>
@@ -977,8 +977,8 @@
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
+      <c r="B17" s="7">
+        <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>29</v>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EB382D-0359-4CAC-8029-5D88B35D0EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C26320-372C-4A06-8B97-8D9C05C0D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="П-30 2025" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -512,18 +512,18 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -549,7 +549,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -579,7 +579,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -607,7 +607,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -635,7 +635,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -701,8 +701,8 @@
       <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
+      <c r="D7" s="7">
+        <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>30</v>
@@ -721,7 +721,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -805,12 +805,12 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
+      <c r="B11" s="7">
+        <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>29</v>
@@ -833,7 +833,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -945,7 +945,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1270,7 +1270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1283,7 +1283,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C26320-372C-4A06-8B97-8D9C05C0D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04D87E1-AE03-4A64-ADEA-0C6CECDF97E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="П-30 2025" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Гаврильченко С.</t>
   </si>
   <si>
-    <t>Венидиктов Д.</t>
-  </si>
-  <si>
     <t>Бычков Д.</t>
   </si>
   <si>
@@ -113,6 +110,18 @@
   </si>
   <si>
     <t>SimpleMVP (users)</t>
+  </si>
+  <si>
+    <t>Экстрим. Сем. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>нз</t>
+  </si>
+  <si>
+    <t>зачет</t>
   </si>
 </sst>
 </file>
@@ -185,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -203,6 +212,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,21 +521,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="35.4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -538,9 +551,11 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -549,21 +564,21 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4">
         <v>5</v>
@@ -579,9 +594,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
@@ -589,14 +604,16 @@
       <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>29</v>
+      <c r="D3" s="7">
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -607,9 +624,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -618,13 +635,15 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -635,628 +654,624 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4</v>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>29</v>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3</v>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>29</v>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="7">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>29</v>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>29</v>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="4">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>29</v>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>29</v>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>29</v>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1270,7 +1285,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1283,7 +1298,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04D87E1-AE03-4A64-ADEA-0C6CECDF97E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B135D2F-90DE-40A9-848C-E248485ABD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="П-30 2025" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -524,7 +524,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -568,11 +568,11 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -583,7 +583,9 @@
       <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -703,7 +705,9 @@
       <c r="F6" s="7">
         <v>5</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -731,7 +735,9 @@
         <v>29</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -789,7 +795,9 @@
         <v>29</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -819,7 +827,9 @@
         <v>29</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -967,7 +977,9 @@
         <v>29</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1025,7 +1037,9 @@
         <v>29</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1083,7 +1097,9 @@
         <v>29</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1111,7 +1127,9 @@
         <v>29</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1126,11 +1144,11 @@
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -1141,7 +1159,9 @@
       <c r="F21" s="4">
         <v>5</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1199,7 +1219,9 @@
         <v>29</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B135D2F-90DE-40A9-848C-E248485ABD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C174B7-70F3-49C5-9247-BC4F51D19A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="П-30 2025" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>зачет</t>
+  </si>
+  <si>
+    <t>WinForms ZZ</t>
+  </si>
+  <si>
+    <t>Экстрим. Сем. 2</t>
   </si>
 </sst>
 </file>
@@ -524,7 +530,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -533,7 +539,9 @@
     <col min="2" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -556,8 +564,12 @@
       <c r="G1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="H1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -1057,8 +1069,8 @@
       <c r="B18" s="7">
         <v>4</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>28</v>
+      <c r="C18" s="7">
+        <v>3</v>
       </c>
       <c r="D18" s="7">
         <v>5</v>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C174B7-70F3-49C5-9247-BC4F51D19A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CD3B58-45E0-461C-B629-ABE223D530D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="П-30 2025" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -648,15 +648,15 @@
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
+      <c r="D4" s="4">
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -721,7 +721,9 @@
         <v>34</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -1172,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CD3B58-45E0-461C-B629-ABE223D530D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D522C88-13F7-44A9-B245-860731E60B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -599,7 +599,9 @@
         <v>34</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4">
+        <v>5</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -624,7 +626,9 @@
       <c r="E3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>4</v>
+      </c>
       <c r="G3" s="7" t="s">
         <v>33</v>
       </c>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D522C88-13F7-44A9-B245-860731E60B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C559AD6-9079-40B3-8E05-C6D13458644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="П-30 2025" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -715,8 +715,8 @@
       <c r="D6" s="7">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
+      <c r="E6" s="4">
+        <v>5</v>
       </c>
       <c r="F6" s="7">
         <v>5</v>
@@ -809,8 +809,8 @@
       <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
+      <c r="E9" s="4">
+        <v>5</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -838,8 +838,8 @@
       <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>28</v>
+      <c r="D10" s="7">
+        <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>29</v>
@@ -1171,8 +1171,8 @@
       <c r="D21" s="4">
         <v>4</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>29</v>
+      <c r="E21" s="4">
+        <v>5</v>
       </c>
       <c r="F21" s="4">
         <v>5</v>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C559AD6-9079-40B3-8E05-C6D13458644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D54D02-520B-4962-9744-D3A6AECD1C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D54D02-520B-4962-9744-D3A6AECD1C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE941EC-6613-46EE-A02A-C3B9281595E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -658,7 +658,9 @@
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1084,7 +1086,9 @@
       <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>4</v>
+      </c>
       <c r="G18" s="7" t="s">
         <v>34</v>
       </c>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE941EC-6613-46EE-A02A-C3B9281595E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2456A-8B5E-4008-8520-23A58F798B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -159,7 +159,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -223,6 +229,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,7 +540,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -718,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="7">
         <v>5</v>
@@ -837,8 +847,8 @@
       <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
+      <c r="C10" s="7">
+        <v>3</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
@@ -852,7 +862,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -882,7 +892,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -998,7 +1008,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2456A-8B5E-4008-8520-23A58F798B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F017F7-E56E-4006-9D39-D842253D5505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,9 +228,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -540,7 +537,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -633,8 +630,8 @@
       <c r="D3" s="7">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
+      <c r="E3" s="4">
+        <v>4</v>
       </c>
       <c r="F3" s="7">
         <v>4</v>
@@ -697,8 +694,8 @@
       <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
+      <c r="E5" s="4">
+        <v>4</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -862,7 +859,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -892,7 +889,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -921,7 +918,9 @@
         <v>34</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1103,7 +1102,9 @@
         <v>34</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>4</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1195,7 +1196,9 @@
         <v>34</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F017F7-E56E-4006-9D39-D842253D5505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81238644-3EBB-4CDD-BFF3-19431E32E77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -537,7 +537,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -685,8 +685,8 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
+      <c r="B5" s="4">
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -874,8 +874,8 @@
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
+      <c r="C11" s="4">
+        <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>28</v>

--- a/Состояние МДК 01.01.xlsx
+++ b/Состояние МДК 01.01.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81238644-3EBB-4CDD-BFF3-19431E32E77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="П-30 2025" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>ЛР 1</t>
   </si>
@@ -133,8 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +157,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -230,6 +241,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -248,9 +265,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +305,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -322,7 +339,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -357,10 +373,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,14 +548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
     <col min="2" max="5" width="9.140625" style="1"/>
@@ -551,7 +566,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="45" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -583,7 +598,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -596,8 +611,8 @@
       <c r="D2" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
+      <c r="E2" s="4">
+        <v>5</v>
       </c>
       <c r="F2" s="4">
         <v>5</v>
@@ -617,7 +632,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -649,7 +664,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -662,7 +677,7 @@
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="4">
@@ -681,7 +696,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -711,7 +726,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -745,7 +760,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -775,7 +790,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -805,7 +820,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -837,7 +852,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -850,7 +865,7 @@
       <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="7"/>
@@ -867,7 +882,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -897,7 +912,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -910,10 +925,12 @@
       <c r="D12" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
       <c r="G12" s="7" t="s">
         <v>34</v>
       </c>
@@ -929,7 +946,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -959,7 +976,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -989,7 +1006,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1036,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1049,7 +1066,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1079,7 @@
       <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="4"/>
@@ -1079,7 +1096,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -1092,8 +1109,8 @@
       <c r="D18" s="7">
         <v>5</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>29</v>
+      <c r="E18" s="4">
+        <v>4</v>
       </c>
       <c r="F18" s="7">
         <v>4</v>
@@ -1113,7 +1130,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1143,7 @@
       <c r="D19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="4"/>
@@ -1143,7 +1160,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1173,7 @@
       <c r="D20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="7"/>
@@ -1173,7 +1190,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1224,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1220,7 +1237,7 @@
       <c r="D22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="7"/>
@@ -1237,7 +1254,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1284,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1314,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1328,7 +1345,7 @@
       <c r="P25" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
+  <sortState ref="A2:A25">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1337,12 +1354,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1350,12 +1367,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
